--- a/biology/Histoire de la zoologie et de la botanique/Jean_Cottreau/Jean_Cottreau.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Cottreau/Jean_Cottreau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Cottreau (né à Conflans-sur-Anille le 1er décembre 1877 et mort à Paris 1er le 30 avril 1945[1]) est un paléontologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Cottreau (né à Conflans-sur-Anille le 1er décembre 1877 et mort à Paris 1er le 30 avril 1945) est un paléontologue français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est docteur ès sciences. Paléontologue, il devient sous-directeur de la chaire de paléontologie au Muséum national d'histoire naturelle en 1920.
 Un squelette complet de Metaxytherium medium est trouvé à Doué-la-Fontaine dans les faluns du Miocène supérieur en 1921 dans la propriété de MM. Victor et Marcel Chatenay, au cours d'une excavation pratiquée à faible profondeur dans le falun. Il est décrit en 1928 par Jean Cottreau.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean Cottreau est l'auteur de :
 Les échinides du bassin méditerranéen, époque néogène, 1 vol. (195 p.), Édition : Paris : Masson , 1913
